--- a/DOC/結合テスト/EMSM_結合試験項目仕様書_有給管理リスト.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書_有給管理リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-03\workspace\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3980B-97AC-4716-A822-30A62D15A9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF9751C-F481-40F5-8381-14E5A21DAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="684" windowWidth="14232" windowHeight="11712" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7848" yWindow="708" windowWidth="14232" windowHeight="11712" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
   <si>
     <t>No</t>
   </si>
@@ -302,22 +302,13 @@
     <t>20</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>20240308</t>
   </si>
   <si>
     <t>20240521</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>20240430</t>
   </si>
   <si>
     <t>yukyuテブール（有給管理テーブル）</t>
@@ -562,6 +553,26 @@
   </si>
   <si>
     <t>テストデータNo.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20240604</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20240308</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>16</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1513,6 +1524,15 @@
     <xf numFmtId="49" fontId="36" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1573,6 +1593,222 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1581,231 +1817,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2093,7 +2104,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:R20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12"/>
@@ -2202,16 +2213,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -2219,20 +2230,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2257,58 +2268,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="75"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="75"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="78"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="81"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2333,58 +2344,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="70" t="s">
+      <c r="G22" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="80"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="83"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="67"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="67"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="70"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2596,7 +2607,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
@@ -2727,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BJ15" sqref="BJ15:BO15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -2820,515 +2831,515 @@
       <c r="BX1" s="30"/>
     </row>
     <row r="2" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
       <c r="BX2" s="30"/>
     </row>
     <row r="3" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
       <c r="BX3" s="31"/>
     </row>
     <row r="4" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="109" t="s">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="113" t="s">
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="114"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
-      <c r="AX4" s="114"/>
-      <c r="AY4" s="114"/>
-      <c r="AZ4" s="114"/>
-      <c r="BA4" s="114"/>
-      <c r="BB4" s="114"/>
-      <c r="BC4" s="115"/>
-      <c r="BD4" s="115"/>
-      <c r="BE4" s="115"/>
-      <c r="BF4" s="114"/>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="117" t="s">
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="135"/>
+      <c r="AD4" s="135"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="135"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="135"/>
+      <c r="AL4" s="135"/>
+      <c r="AM4" s="135"/>
+      <c r="AN4" s="135"/>
+      <c r="AO4" s="135"/>
+      <c r="AP4" s="135"/>
+      <c r="AQ4" s="135"/>
+      <c r="AR4" s="135"/>
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="135"/>
+      <c r="AU4" s="135"/>
+      <c r="AV4" s="135"/>
+      <c r="AW4" s="135"/>
+      <c r="AX4" s="135"/>
+      <c r="AY4" s="135"/>
+      <c r="AZ4" s="135"/>
+      <c r="BA4" s="135"/>
+      <c r="BB4" s="135"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="135"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="119"/>
-      <c r="BK4" s="120">
+      <c r="BI4" s="139"/>
+      <c r="BJ4" s="140"/>
+      <c r="BK4" s="141">
         <v>45440</v>
       </c>
-      <c r="BL4" s="114"/>
-      <c r="BM4" s="114"/>
-      <c r="BN4" s="114"/>
-      <c r="BO4" s="114"/>
-      <c r="BP4" s="114"/>
-      <c r="BQ4" s="117" t="s">
+      <c r="BL4" s="135"/>
+      <c r="BM4" s="135"/>
+      <c r="BN4" s="135"/>
+      <c r="BO4" s="135"/>
+      <c r="BP4" s="135"/>
+      <c r="BQ4" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="BR4" s="118"/>
-      <c r="BS4" s="119"/>
-      <c r="BT4" s="120" t="s">
+      <c r="BR4" s="139"/>
+      <c r="BS4" s="140"/>
+      <c r="BT4" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="BU4" s="114"/>
-      <c r="BV4" s="114"/>
-      <c r="BW4" s="114"/>
+      <c r="BU4" s="135"/>
+      <c r="BV4" s="135"/>
+      <c r="BW4" s="135"/>
       <c r="BX4" s="32"/>
     </row>
     <row r="5" spans="1:77" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="121" t="s">
+      <c r="A5" s="142"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="127"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
-      <c r="AW5" s="127"/>
-      <c r="AX5" s="127"/>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="128"/>
-      <c r="BH5" s="121" t="s">
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="147"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="148"/>
+      <c r="AN5" s="148"/>
+      <c r="AO5" s="148"/>
+      <c r="AP5" s="148"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
+      <c r="AX5" s="148"/>
+      <c r="AY5" s="148"/>
+      <c r="AZ5" s="148"/>
+      <c r="BA5" s="148"/>
+      <c r="BB5" s="148"/>
+      <c r="BC5" s="148"/>
+      <c r="BD5" s="148"/>
+      <c r="BE5" s="148"/>
+      <c r="BF5" s="148"/>
+      <c r="BG5" s="149"/>
+      <c r="BH5" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="BI5" s="122"/>
-      <c r="BJ5" s="123"/>
-      <c r="BK5" s="122"/>
-      <c r="BL5" s="122"/>
-      <c r="BM5" s="122"/>
-      <c r="BN5" s="122"/>
-      <c r="BO5" s="122"/>
-      <c r="BP5" s="122"/>
-      <c r="BQ5" s="121" t="s">
+      <c r="BI5" s="143"/>
+      <c r="BJ5" s="144"/>
+      <c r="BK5" s="143"/>
+      <c r="BL5" s="143"/>
+      <c r="BM5" s="143"/>
+      <c r="BN5" s="143"/>
+      <c r="BO5" s="143"/>
+      <c r="BP5" s="143"/>
+      <c r="BQ5" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="BR5" s="122"/>
-      <c r="BS5" s="123"/>
-      <c r="BT5" s="122"/>
-      <c r="BU5" s="127"/>
-      <c r="BV5" s="127"/>
-      <c r="BW5" s="127"/>
+      <c r="BR5" s="143"/>
+      <c r="BS5" s="144"/>
+      <c r="BT5" s="143"/>
+      <c r="BU5" s="148"/>
+      <c r="BV5" s="148"/>
+      <c r="BW5" s="148"/>
       <c r="BX5" s="25"/>
     </row>
     <row r="7" spans="1:77" s="33" customFormat="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135" t="s">
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="135"/>
-      <c r="Q7" s="135"/>
-      <c r="R7" s="135"/>
-      <c r="S7" s="140" t="s">
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="136" t="s">
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="137"/>
-      <c r="Z7" s="137"/>
-      <c r="AA7" s="137"/>
-      <c r="AB7" s="137"/>
-      <c r="AC7" s="137"/>
-      <c r="AD7" s="137"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="137"/>
-      <c r="AG7" s="137"/>
-      <c r="AH7" s="138"/>
-      <c r="AI7" s="138"/>
-      <c r="AJ7" s="138"/>
-      <c r="AK7" s="137"/>
-      <c r="AL7" s="137"/>
-      <c r="AM7" s="137"/>
-      <c r="AN7" s="137"/>
-      <c r="AO7" s="137"/>
-      <c r="AP7" s="137"/>
-      <c r="AQ7" s="137"/>
-      <c r="AR7" s="139"/>
-      <c r="AS7" s="136" t="s">
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="106"/>
+      <c r="AP7" s="106"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AT7" s="137"/>
-      <c r="AU7" s="137"/>
-      <c r="AV7" s="137"/>
-      <c r="AW7" s="137"/>
-      <c r="AX7" s="137"/>
-      <c r="AY7" s="137"/>
-      <c r="AZ7" s="137"/>
-      <c r="BA7" s="137"/>
-      <c r="BB7" s="137"/>
-      <c r="BC7" s="138"/>
-      <c r="BD7" s="138"/>
-      <c r="BE7" s="138"/>
-      <c r="BF7" s="137"/>
-      <c r="BG7" s="137"/>
-      <c r="BH7" s="137"/>
-      <c r="BI7" s="139"/>
-      <c r="BJ7" s="136" t="s">
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="106"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="106"/>
+      <c r="AZ7" s="106"/>
+      <c r="BA7" s="106"/>
+      <c r="BB7" s="106"/>
+      <c r="BC7" s="116"/>
+      <c r="BD7" s="116"/>
+      <c r="BE7" s="116"/>
+      <c r="BF7" s="106"/>
+      <c r="BG7" s="106"/>
+      <c r="BH7" s="106"/>
+      <c r="BI7" s="107"/>
+      <c r="BJ7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="BK7" s="137"/>
-      <c r="BL7" s="137"/>
-      <c r="BM7" s="137"/>
-      <c r="BN7" s="137"/>
-      <c r="BO7" s="139"/>
-      <c r="BP7" s="136" t="s">
+      <c r="BK7" s="106"/>
+      <c r="BL7" s="106"/>
+      <c r="BM7" s="106"/>
+      <c r="BN7" s="106"/>
+      <c r="BO7" s="107"/>
+      <c r="BP7" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="BQ7" s="137"/>
-      <c r="BR7" s="137"/>
-      <c r="BS7" s="137"/>
-      <c r="BT7" s="139"/>
-      <c r="BU7" s="136" t="s">
+      <c r="BQ7" s="106"/>
+      <c r="BR7" s="106"/>
+      <c r="BS7" s="106"/>
+      <c r="BT7" s="107"/>
+      <c r="BU7" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="BV7" s="137"/>
-      <c r="BW7" s="137"/>
-      <c r="BX7" s="139"/>
+      <c r="BV7" s="106"/>
+      <c r="BW7" s="106"/>
+      <c r="BX7" s="107"/>
     </row>
     <row r="8" spans="1:77" ht="27" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="88" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="85" t="s">
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="85" t="s">
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="86"/>
-      <c r="AZ8" s="86"/>
-      <c r="BA8" s="86"/>
-      <c r="BB8" s="86"/>
-      <c r="BC8" s="86"/>
-      <c r="BD8" s="86"/>
-      <c r="BE8" s="86"/>
-      <c r="BF8" s="86"/>
-      <c r="BG8" s="86"/>
-      <c r="BH8" s="86"/>
-      <c r="BI8" s="87"/>
-      <c r="BJ8" s="97"/>
-      <c r="BK8" s="97"/>
-      <c r="BL8" s="97"/>
-      <c r="BM8" s="97"/>
-      <c r="BN8" s="97"/>
-      <c r="BO8" s="98"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="87"/>
+      <c r="AZ8" s="87"/>
+      <c r="BA8" s="87"/>
+      <c r="BB8" s="87"/>
+      <c r="BC8" s="87"/>
+      <c r="BD8" s="87"/>
+      <c r="BE8" s="87"/>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="87"/>
+      <c r="BH8" s="87"/>
+      <c r="BI8" s="88"/>
+      <c r="BJ8" s="109"/>
+      <c r="BK8" s="109"/>
+      <c r="BL8" s="109"/>
+      <c r="BM8" s="109"/>
+      <c r="BN8" s="109"/>
+      <c r="BO8" s="110"/>
       <c r="BP8" s="100"/>
       <c r="BQ8" s="100"/>
       <c r="BR8" s="100"/>
       <c r="BS8" s="100"/>
       <c r="BT8" s="101"/>
-      <c r="BU8" s="132"/>
-      <c r="BV8" s="133"/>
-      <c r="BW8" s="133"/>
-      <c r="BX8" s="134"/>
+      <c r="BU8" s="102"/>
+      <c r="BV8" s="103"/>
+      <c r="BW8" s="103"/>
+      <c r="BX8" s="104"/>
     </row>
     <row r="9" spans="1:77" ht="27" customHeight="1">
-      <c r="A9" s="156">
+      <c r="A9" s="150">
         <v>1</v>
       </c>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="129" t="s">
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="121"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="89"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="89"/>
-      <c r="BB9" s="89"/>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="89"/>
-      <c r="BE9" s="89"/>
-      <c r="BF9" s="89"/>
-      <c r="BG9" s="89"/>
-      <c r="BH9" s="89"/>
-      <c r="BI9" s="90"/>
-      <c r="BJ9" s="96" t="s">
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="90"/>
+      <c r="BB9" s="90"/>
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="90"/>
+      <c r="BG9" s="90"/>
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="91"/>
+      <c r="BJ9" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="BK9" s="97"/>
-      <c r="BL9" s="97"/>
-      <c r="BM9" s="97"/>
-      <c r="BN9" s="97"/>
-      <c r="BO9" s="98"/>
+      <c r="BK9" s="109"/>
+      <c r="BL9" s="109"/>
+      <c r="BM9" s="109"/>
+      <c r="BN9" s="109"/>
+      <c r="BO9" s="110"/>
       <c r="BP9" s="99" t="s">
         <v>59</v>
       </c>
@@ -3336,95 +3347,95 @@
       <c r="BR9" s="100"/>
       <c r="BS9" s="100"/>
       <c r="BT9" s="101"/>
-      <c r="BU9" s="132">
+      <c r="BU9" s="102">
         <v>45446</v>
       </c>
-      <c r="BV9" s="133"/>
-      <c r="BW9" s="133"/>
-      <c r="BX9" s="134"/>
+      <c r="BV9" s="103"/>
+      <c r="BW9" s="103"/>
+      <c r="BX9" s="104"/>
     </row>
     <row r="10" spans="1:77" ht="36" customHeight="1">
-      <c r="A10" s="156">
+      <c r="A10" s="150">
         <v>2</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="129" t="s">
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="89"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="89"/>
-      <c r="BC10" s="89"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
-      <c r="BF10" s="89"/>
-      <c r="BG10" s="89"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="90"/>
-      <c r="BJ10" s="96" t="s">
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="90"/>
+      <c r="BB10" s="90"/>
+      <c r="BC10" s="90"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="90"/>
+      <c r="BH10" s="90"/>
+      <c r="BI10" s="91"/>
+      <c r="BJ10" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="BK10" s="97"/>
-      <c r="BL10" s="97"/>
-      <c r="BM10" s="97"/>
-      <c r="BN10" s="97"/>
-      <c r="BO10" s="98"/>
+      <c r="BK10" s="109"/>
+      <c r="BL10" s="109"/>
+      <c r="BM10" s="109"/>
+      <c r="BN10" s="109"/>
+      <c r="BO10" s="110"/>
       <c r="BP10" s="99" t="s">
         <v>59</v>
       </c>
@@ -3432,95 +3443,95 @@
       <c r="BR10" s="100"/>
       <c r="BS10" s="100"/>
       <c r="BT10" s="101"/>
-      <c r="BU10" s="132">
+      <c r="BU10" s="102">
         <v>45446</v>
       </c>
-      <c r="BV10" s="133"/>
-      <c r="BW10" s="133"/>
-      <c r="BX10" s="134"/>
+      <c r="BV10" s="103"/>
+      <c r="BW10" s="103"/>
+      <c r="BX10" s="104"/>
     </row>
     <row r="11" spans="1:77" s="40" customFormat="1" ht="32.4" customHeight="1">
-      <c r="A11" s="156">
+      <c r="A11" s="150">
         <v>3</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="91" t="s">
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="89"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="89"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="89"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="89"/>
-      <c r="BC11" s="89"/>
-      <c r="BD11" s="89"/>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="89"/>
-      <c r="BG11" s="89"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="90"/>
-      <c r="BJ11" s="96" t="s">
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="90"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="91"/>
+      <c r="AS11" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BG11" s="90"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="91"/>
+      <c r="BJ11" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="BK11" s="97"/>
-      <c r="BL11" s="97"/>
-      <c r="BM11" s="97"/>
-      <c r="BN11" s="97"/>
-      <c r="BO11" s="98"/>
+      <c r="BK11" s="109"/>
+      <c r="BL11" s="109"/>
+      <c r="BM11" s="109"/>
+      <c r="BN11" s="109"/>
+      <c r="BO11" s="110"/>
       <c r="BP11" s="99" t="s">
         <v>59</v>
       </c>
@@ -3528,96 +3539,96 @@
       <c r="BR11" s="100"/>
       <c r="BS11" s="100"/>
       <c r="BT11" s="101"/>
-      <c r="BU11" s="132">
+      <c r="BU11" s="102">
         <v>45446</v>
       </c>
-      <c r="BV11" s="133"/>
-      <c r="BW11" s="133"/>
-      <c r="BX11" s="134"/>
+      <c r="BV11" s="103"/>
+      <c r="BW11" s="103"/>
+      <c r="BX11" s="104"/>
       <c r="BY11" s="26"/>
     </row>
     <row r="12" spans="1:77" s="38" customFormat="1" ht="44.4" customHeight="1">
-      <c r="A12" s="156">
+      <c r="A12" s="150">
         <v>4</v>
       </c>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="129" t="s">
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="88" t="s">
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="91"/>
+      <c r="AS12" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="89"/>
-      <c r="AP12" s="89"/>
-      <c r="AQ12" s="89"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="89"/>
-      <c r="AV12" s="89"/>
-      <c r="AW12" s="89"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="89"/>
-      <c r="BB12" s="89"/>
-      <c r="BC12" s="89"/>
-      <c r="BD12" s="89"/>
-      <c r="BE12" s="89"/>
-      <c r="BF12" s="89"/>
-      <c r="BG12" s="89"/>
-      <c r="BH12" s="89"/>
-      <c r="BI12" s="90"/>
-      <c r="BJ12" s="96" t="s">
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="90"/>
+      <c r="BA12" s="90"/>
+      <c r="BB12" s="90"/>
+      <c r="BC12" s="90"/>
+      <c r="BD12" s="90"/>
+      <c r="BE12" s="90"/>
+      <c r="BF12" s="90"/>
+      <c r="BG12" s="90"/>
+      <c r="BH12" s="90"/>
+      <c r="BI12" s="91"/>
+      <c r="BJ12" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="BK12" s="97"/>
-      <c r="BL12" s="97"/>
-      <c r="BM12" s="97"/>
-      <c r="BN12" s="97"/>
-      <c r="BO12" s="98"/>
+      <c r="BK12" s="109"/>
+      <c r="BL12" s="109"/>
+      <c r="BM12" s="109"/>
+      <c r="BN12" s="109"/>
+      <c r="BO12" s="110"/>
       <c r="BP12" s="99" t="s">
         <v>59</v>
       </c>
@@ -3625,249 +3636,249 @@
       <c r="BR12" s="100"/>
       <c r="BS12" s="100"/>
       <c r="BT12" s="101"/>
-      <c r="BU12" s="132">
+      <c r="BU12" s="102">
         <v>45446</v>
       </c>
-      <c r="BV12" s="133"/>
-      <c r="BW12" s="133"/>
-      <c r="BX12" s="134"/>
+      <c r="BV12" s="103"/>
+      <c r="BW12" s="103"/>
+      <c r="BX12" s="104"/>
       <c r="BY12" s="39"/>
     </row>
     <row r="13" spans="1:77" s="40" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="86"/>
-      <c r="AO13" s="86"/>
-      <c r="AP13" s="86"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="88"/>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="89"/>
-      <c r="AV13" s="89"/>
-      <c r="AW13" s="89"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="89"/>
-      <c r="AZ13" s="89"/>
-      <c r="BA13" s="89"/>
-      <c r="BB13" s="89"/>
-      <c r="BC13" s="89"/>
-      <c r="BD13" s="89"/>
-      <c r="BE13" s="89"/>
-      <c r="BF13" s="89"/>
-      <c r="BG13" s="89"/>
-      <c r="BH13" s="89"/>
-      <c r="BI13" s="90"/>
-      <c r="BJ13" s="96"/>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="97"/>
-      <c r="BM13" s="97"/>
-      <c r="BN13" s="97"/>
-      <c r="BO13" s="98"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="90"/>
+      <c r="BA13" s="90"/>
+      <c r="BB13" s="90"/>
+      <c r="BC13" s="90"/>
+      <c r="BD13" s="90"/>
+      <c r="BE13" s="90"/>
+      <c r="BF13" s="90"/>
+      <c r="BG13" s="90"/>
+      <c r="BH13" s="90"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="108"/>
+      <c r="BK13" s="109"/>
+      <c r="BL13" s="109"/>
+      <c r="BM13" s="109"/>
+      <c r="BN13" s="109"/>
+      <c r="BO13" s="110"/>
       <c r="BP13" s="99"/>
       <c r="BQ13" s="100"/>
       <c r="BR13" s="100"/>
       <c r="BS13" s="100"/>
       <c r="BT13" s="101"/>
-      <c r="BU13" s="145"/>
-      <c r="BV13" s="146"/>
-      <c r="BW13" s="146"/>
-      <c r="BX13" s="147"/>
+      <c r="BU13" s="112"/>
+      <c r="BV13" s="113"/>
+      <c r="BW13" s="113"/>
+      <c r="BX13" s="114"/>
       <c r="BY13" s="26"/>
     </row>
     <row r="14" spans="1:77" s="38" customFormat="1" ht="27" customHeight="1">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="89"/>
-      <c r="AP14" s="89"/>
-      <c r="AQ14" s="89"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="94"/>
-      <c r="AY14" s="94"/>
-      <c r="AZ14" s="94"/>
-      <c r="BA14" s="94"/>
-      <c r="BB14" s="94"/>
-      <c r="BC14" s="94"/>
-      <c r="BD14" s="94"/>
-      <c r="BE14" s="94"/>
-      <c r="BF14" s="94"/>
-      <c r="BG14" s="94"/>
-      <c r="BH14" s="94"/>
-      <c r="BI14" s="94"/>
-      <c r="BJ14" s="96"/>
-      <c r="BK14" s="97"/>
-      <c r="BL14" s="97"/>
-      <c r="BM14" s="97"/>
-      <c r="BN14" s="97"/>
-      <c r="BO14" s="98"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="90"/>
+      <c r="AL14" s="90"/>
+      <c r="AM14" s="90"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="85"/>
+      <c r="BC14" s="85"/>
+      <c r="BD14" s="85"/>
+      <c r="BE14" s="85"/>
+      <c r="BF14" s="85"/>
+      <c r="BG14" s="85"/>
+      <c r="BH14" s="85"/>
+      <c r="BI14" s="85"/>
+      <c r="BJ14" s="108"/>
+      <c r="BK14" s="109"/>
+      <c r="BL14" s="109"/>
+      <c r="BM14" s="109"/>
+      <c r="BN14" s="109"/>
+      <c r="BO14" s="110"/>
       <c r="BP14" s="99"/>
       <c r="BQ14" s="100"/>
       <c r="BR14" s="100"/>
       <c r="BS14" s="100"/>
       <c r="BT14" s="101"/>
-      <c r="BU14" s="143"/>
-      <c r="BV14" s="144"/>
-      <c r="BW14" s="144"/>
-      <c r="BX14" s="144"/>
+      <c r="BU14" s="97"/>
+      <c r="BV14" s="98"/>
+      <c r="BW14" s="98"/>
+      <c r="BX14" s="98"/>
       <c r="BY14" s="39"/>
     </row>
     <row r="15" spans="1:77" s="38" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="86"/>
-      <c r="AK15" s="86"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="86"/>
-      <c r="AO15" s="86"/>
-      <c r="AP15" s="86"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="94"/>
-      <c r="AT15" s="94"/>
-      <c r="AU15" s="94"/>
-      <c r="AV15" s="94"/>
-      <c r="AW15" s="94"/>
-      <c r="AX15" s="94"/>
-      <c r="AY15" s="94"/>
-      <c r="AZ15" s="94"/>
-      <c r="BA15" s="94"/>
-      <c r="BB15" s="94"/>
-      <c r="BC15" s="94"/>
-      <c r="BD15" s="94"/>
-      <c r="BE15" s="94"/>
-      <c r="BF15" s="94"/>
-      <c r="BG15" s="94"/>
-      <c r="BH15" s="94"/>
-      <c r="BI15" s="94"/>
-      <c r="BJ15" s="148"/>
-      <c r="BK15" s="149"/>
-      <c r="BL15" s="149"/>
-      <c r="BM15" s="149"/>
-      <c r="BN15" s="149"/>
-      <c r="BO15" s="150"/>
-      <c r="BP15" s="148"/>
-      <c r="BQ15" s="151"/>
-      <c r="BR15" s="151"/>
-      <c r="BS15" s="151"/>
-      <c r="BT15" s="152"/>
-      <c r="BU15" s="143"/>
-      <c r="BV15" s="144"/>
-      <c r="BW15" s="144"/>
-      <c r="BX15" s="144"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="85"/>
+      <c r="AX15" s="85"/>
+      <c r="AY15" s="85"/>
+      <c r="AZ15" s="85"/>
+      <c r="BA15" s="85"/>
+      <c r="BB15" s="85"/>
+      <c r="BC15" s="85"/>
+      <c r="BD15" s="85"/>
+      <c r="BE15" s="85"/>
+      <c r="BF15" s="85"/>
+      <c r="BG15" s="85"/>
+      <c r="BH15" s="85"/>
+      <c r="BI15" s="85"/>
+      <c r="BJ15" s="92"/>
+      <c r="BK15" s="93"/>
+      <c r="BL15" s="93"/>
+      <c r="BM15" s="93"/>
+      <c r="BN15" s="93"/>
+      <c r="BO15" s="94"/>
+      <c r="BP15" s="92"/>
+      <c r="BQ15" s="95"/>
+      <c r="BR15" s="95"/>
+      <c r="BS15" s="95"/>
+      <c r="BT15" s="96"/>
+      <c r="BU15" s="97"/>
+      <c r="BV15" s="98"/>
+      <c r="BW15" s="98"/>
+      <c r="BX15" s="98"/>
       <c r="BY15" s="39"/>
     </row>
     <row r="17" spans="21:78">
@@ -3894,84 +3905,84 @@
     <row r="18" spans="21:78" s="50" customFormat="1" ht="27" customHeight="1">
       <c r="BH18" s="51"/>
       <c r="BI18" s="51"/>
-      <c r="BJ18" s="153"/>
-      <c r="BK18" s="153"/>
-      <c r="BL18" s="153"/>
-      <c r="BM18" s="153"/>
-      <c r="BN18" s="153"/>
-      <c r="BO18" s="153"/>
-      <c r="BP18" s="153"/>
-      <c r="BQ18" s="153"/>
-      <c r="BR18" s="153"/>
-      <c r="BS18" s="153"/>
-      <c r="BT18" s="153"/>
-      <c r="BU18" s="154"/>
-      <c r="BV18" s="155"/>
-      <c r="BW18" s="155"/>
-      <c r="BX18" s="155"/>
+      <c r="BJ18" s="154"/>
+      <c r="BK18" s="154"/>
+      <c r="BL18" s="154"/>
+      <c r="BM18" s="154"/>
+      <c r="BN18" s="154"/>
+      <c r="BO18" s="154"/>
+      <c r="BP18" s="154"/>
+      <c r="BQ18" s="154"/>
+      <c r="BR18" s="154"/>
+      <c r="BS18" s="154"/>
+      <c r="BT18" s="154"/>
+      <c r="BU18" s="155"/>
+      <c r="BV18" s="156"/>
+      <c r="BW18" s="156"/>
+      <c r="BX18" s="156"/>
       <c r="BY18" s="51"/>
       <c r="BZ18" s="51"/>
     </row>
     <row r="19" spans="21:78" s="50" customFormat="1" ht="27" customHeight="1">
       <c r="BH19" s="51"/>
       <c r="BI19" s="51"/>
-      <c r="BJ19" s="153"/>
-      <c r="BK19" s="153"/>
-      <c r="BL19" s="153"/>
-      <c r="BM19" s="153"/>
-      <c r="BN19" s="153"/>
-      <c r="BO19" s="153"/>
-      <c r="BP19" s="153"/>
-      <c r="BQ19" s="153"/>
-      <c r="BR19" s="153"/>
-      <c r="BS19" s="153"/>
-      <c r="BT19" s="153"/>
-      <c r="BU19" s="154"/>
-      <c r="BV19" s="155"/>
-      <c r="BW19" s="155"/>
-      <c r="BX19" s="155"/>
+      <c r="BJ19" s="154"/>
+      <c r="BK19" s="154"/>
+      <c r="BL19" s="154"/>
+      <c r="BM19" s="154"/>
+      <c r="BN19" s="154"/>
+      <c r="BO19" s="154"/>
+      <c r="BP19" s="154"/>
+      <c r="BQ19" s="154"/>
+      <c r="BR19" s="154"/>
+      <c r="BS19" s="154"/>
+      <c r="BT19" s="154"/>
+      <c r="BU19" s="155"/>
+      <c r="BV19" s="156"/>
+      <c r="BW19" s="156"/>
+      <c r="BX19" s="156"/>
       <c r="BY19" s="51"/>
       <c r="BZ19" s="51"/>
     </row>
     <row r="20" spans="21:78" s="50" customFormat="1" ht="27" customHeight="1">
       <c r="BH20" s="51"/>
       <c r="BI20" s="51"/>
-      <c r="BJ20" s="153"/>
-      <c r="BK20" s="153"/>
-      <c r="BL20" s="153"/>
-      <c r="BM20" s="153"/>
-      <c r="BN20" s="153"/>
-      <c r="BO20" s="153"/>
-      <c r="BP20" s="153"/>
-      <c r="BQ20" s="153"/>
-      <c r="BR20" s="153"/>
-      <c r="BS20" s="153"/>
-      <c r="BT20" s="153"/>
-      <c r="BU20" s="154"/>
-      <c r="BV20" s="155"/>
-      <c r="BW20" s="155"/>
-      <c r="BX20" s="155"/>
+      <c r="BJ20" s="154"/>
+      <c r="BK20" s="154"/>
+      <c r="BL20" s="154"/>
+      <c r="BM20" s="154"/>
+      <c r="BN20" s="154"/>
+      <c r="BO20" s="154"/>
+      <c r="BP20" s="154"/>
+      <c r="BQ20" s="154"/>
+      <c r="BR20" s="154"/>
+      <c r="BS20" s="154"/>
+      <c r="BT20" s="154"/>
+      <c r="BU20" s="155"/>
+      <c r="BV20" s="156"/>
+      <c r="BW20" s="156"/>
+      <c r="BX20" s="156"/>
       <c r="BY20" s="51"/>
       <c r="BZ20" s="51"/>
     </row>
     <row r="21" spans="21:78" s="50" customFormat="1" ht="48.75" customHeight="1">
       <c r="BH21" s="51"/>
       <c r="BI21" s="51"/>
-      <c r="BJ21" s="153"/>
-      <c r="BK21" s="153"/>
-      <c r="BL21" s="153"/>
-      <c r="BM21" s="153"/>
-      <c r="BN21" s="153"/>
-      <c r="BO21" s="153"/>
-      <c r="BP21" s="153"/>
-      <c r="BQ21" s="153"/>
-      <c r="BR21" s="153"/>
-      <c r="BS21" s="153"/>
-      <c r="BT21" s="153"/>
-      <c r="BU21" s="154"/>
-      <c r="BV21" s="155"/>
-      <c r="BW21" s="155"/>
-      <c r="BX21" s="155"/>
+      <c r="BJ21" s="154"/>
+      <c r="BK21" s="154"/>
+      <c r="BL21" s="154"/>
+      <c r="BM21" s="154"/>
+      <c r="BN21" s="154"/>
+      <c r="BO21" s="154"/>
+      <c r="BP21" s="154"/>
+      <c r="BQ21" s="154"/>
+      <c r="BR21" s="154"/>
+      <c r="BS21" s="154"/>
+      <c r="BT21" s="154"/>
+      <c r="BU21" s="155"/>
+      <c r="BV21" s="156"/>
+      <c r="BW21" s="156"/>
+      <c r="BX21" s="156"/>
       <c r="BY21" s="51"/>
       <c r="BZ21" s="51"/>
     </row>
@@ -4020,20 +4031,81 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="X14:AR14"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="BJ15:BO15"/>
-    <mergeCell ref="BP15:BT15"/>
-    <mergeCell ref="BU15:BX15"/>
-    <mergeCell ref="X15:AR15"/>
-    <mergeCell ref="AS15:BI15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="BP14:BT14"/>
-    <mergeCell ref="BU14:BX14"/>
+    <mergeCell ref="BJ21:BO21"/>
+    <mergeCell ref="BP21:BT21"/>
+    <mergeCell ref="BU21:BX21"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="X12:AR12"/>
+    <mergeCell ref="BJ20:BO20"/>
+    <mergeCell ref="BP20:BT20"/>
+    <mergeCell ref="BU20:BX20"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:AR10"/>
+    <mergeCell ref="AS12:BI12"/>
+    <mergeCell ref="BJ19:BO19"/>
+    <mergeCell ref="BP19:BT19"/>
+    <mergeCell ref="BU19:BX19"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="X11:AR11"/>
+    <mergeCell ref="AS11:BI11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:AR9"/>
+    <mergeCell ref="AS9:BI9"/>
+    <mergeCell ref="BJ18:BO18"/>
+    <mergeCell ref="BP18:BT18"/>
+    <mergeCell ref="BU18:BX18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="X13:AR13"/>
+    <mergeCell ref="AS13:BI13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="AS10:BI10"/>
+    <mergeCell ref="A2:AE3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="Z4:BG4"/>
+    <mergeCell ref="BQ4:BS4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="Z5:BG5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="BK5:BP5"/>
+    <mergeCell ref="BQ5:BS5"/>
+    <mergeCell ref="BT5:BW5"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="BK4:BP4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="X7:AR7"/>
+    <mergeCell ref="AS7:BI7"/>
+    <mergeCell ref="BJ7:BO7"/>
+    <mergeCell ref="BP7:BT7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:AR8"/>
+    <mergeCell ref="AS8:BI8"/>
+    <mergeCell ref="BJ8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
     <mergeCell ref="BU8:BX8"/>
     <mergeCell ref="BU7:BX7"/>
     <mergeCell ref="BJ10:BO10"/>
@@ -4053,83 +4125,22 @@
     <mergeCell ref="BJ9:BO9"/>
     <mergeCell ref="BP9:BT9"/>
     <mergeCell ref="BU9:BX9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="X7:AR7"/>
-    <mergeCell ref="AS7:BI7"/>
-    <mergeCell ref="BJ7:BO7"/>
-    <mergeCell ref="BP7:BT7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:AR8"/>
-    <mergeCell ref="AS8:BI8"/>
-    <mergeCell ref="BJ8:BO8"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="A2:AE3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:Y4"/>
-    <mergeCell ref="Z4:BG4"/>
-    <mergeCell ref="BQ4:BS4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="Z5:BG5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="BK5:BP5"/>
-    <mergeCell ref="BQ5:BS5"/>
-    <mergeCell ref="BT5:BW5"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="BK4:BP4"/>
     <mergeCell ref="BJ11:BO11"/>
     <mergeCell ref="BP11:BT11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:AR9"/>
-    <mergeCell ref="AS9:BI9"/>
-    <mergeCell ref="BJ18:BO18"/>
-    <mergeCell ref="BP18:BT18"/>
-    <mergeCell ref="BU18:BX18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="X13:AR13"/>
-    <mergeCell ref="AS13:BI13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="AS10:BI10"/>
-    <mergeCell ref="BJ19:BO19"/>
-    <mergeCell ref="BP19:BT19"/>
-    <mergeCell ref="BU19:BX19"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="X11:AR11"/>
-    <mergeCell ref="AS11:BI11"/>
-    <mergeCell ref="BJ20:BO20"/>
-    <mergeCell ref="BP20:BT20"/>
-    <mergeCell ref="BU20:BX20"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:AR10"/>
-    <mergeCell ref="AS12:BI12"/>
-    <mergeCell ref="BJ21:BO21"/>
-    <mergeCell ref="BP21:BT21"/>
-    <mergeCell ref="BU21:BX21"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="X12:AR12"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="X14:AR14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="BJ15:BO15"/>
+    <mergeCell ref="BP15:BT15"/>
+    <mergeCell ref="BU15:BX15"/>
+    <mergeCell ref="X15:AR15"/>
+    <mergeCell ref="AS15:BI15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="BP14:BT14"/>
+    <mergeCell ref="BU14:BX14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4142,7 +4153,7 @@
   <dimension ref="A2:AH19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E11" sqref="E11:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
@@ -4179,8 +4190,8 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="36">
-      <c r="A3" s="159" t="s">
-        <v>111</v>
+      <c r="A3" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>20</v>
@@ -4237,7 +4248,7 @@
     </row>
     <row r="4" spans="1:34" ht="18">
       <c r="A4" s="44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>36</v>
@@ -4294,7 +4305,7 @@
     </row>
     <row r="5" spans="1:34" ht="18">
       <c r="A5" s="44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>37</v>
@@ -4318,19 +4329,19 @@
         <v>31413</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>64</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N5" s="48" t="s">
         <v>66</v>
@@ -4341,29 +4352,29 @@
       <c r="P5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="157" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" s="158" t="s">
-        <v>110</v>
+      <c r="Q5" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="63" t="s">
+        <v>107</v>
       </c>
       <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:34" s="45" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>43</v>
@@ -4398,11 +4409,11 @@
       <c r="P6" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="157" t="s">
-        <v>110</v>
-      </c>
-      <c r="R6" s="157" t="s">
-        <v>110</v>
+      <c r="Q6" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1">
@@ -4460,7 +4471,7 @@
     </row>
     <row r="9" spans="1:34" ht="18">
       <c r="B9" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
@@ -4498,7 +4509,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="59"/>
@@ -4526,26 +4537,26 @@
       <c r="AE10" s="37"/>
     </row>
     <row r="11" spans="1:34" ht="18">
-      <c r="A11" s="159" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="158" t="s">
+      <c r="A11" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="158" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="158" t="s">
+      <c r="C11" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="158" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="158" t="s">
+      <c r="E11" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="63" t="s">
         <v>75</v>
-      </c>
-      <c r="G11" s="158" t="s">
-        <v>76</v>
       </c>
       <c r="H11" s="57"/>
       <c r="I11" s="59"/>
@@ -4573,26 +4584,26 @@
       <c r="AE11" s="37"/>
     </row>
     <row r="12" spans="1:34" ht="18">
-      <c r="A12" s="159" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="158" t="s">
+      <c r="A12" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="158" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="158" t="s">
+      <c r="C12" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="158" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="158" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="158" t="s">
-        <v>76</v>
+      <c r="E12" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>109</v>
       </c>
       <c r="H12" s="58"/>
       <c r="I12" s="59"/>
@@ -4621,25 +4632,25 @@
     </row>
     <row r="13" spans="1:34" ht="18">
       <c r="A13" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="158" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="158" t="s">
+      <c r="D13" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="158" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="158" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="158" t="s">
-        <v>104</v>
+      <c r="E13" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>101</v>
       </c>
       <c r="H13" s="58"/>
       <c r="I13" s="37"/>
@@ -4668,25 +4679,25 @@
     </row>
     <row r="14" spans="1:34" ht="18">
       <c r="A14" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="158" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="158" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="158" t="s">
+      <c r="E14" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="158" t="s">
-        <v>79</v>
+      <c r="G14" s="63" t="s">
+        <v>109</v>
       </c>
       <c r="H14" s="58"/>
     </row>
@@ -4738,6 +4749,9 @@
       <c r="AH19" s="41"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:G14">
+    <sortCondition ref="B11:B14"/>
+  </sortState>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
